--- a/docx/template_report/Template_LAP_RAP.xlsx
+++ b/docx/template_report/Template_LAP_RAP.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DownloadChrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SmartFactory\docx\template_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E3CB2-EAF8-4647-8F63-1FF4FD2580AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHAP_PO" sheetId="1" r:id="rId1"/>
     <sheet name="NHAP_NGUYEN_VAT_LIEU" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -49,15 +63,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Lắp ráp</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>AK1418022</t>
-  </si>
-  <si>
     <t>Mã nguyên vật liệu</t>
   </si>
   <si>
@@ -98,19 +103,82 @@
   </si>
   <si>
     <t>Nhập phục vụ</t>
+  </si>
+  <si>
+    <t>Mã sản phẩm:  4180</t>
+  </si>
+  <si>
+    <t>组装</t>
+  </si>
+  <si>
+    <r>
+      <t>产品名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> :  PKW4180-0002</t>
+    </r>
+  </si>
+  <si>
+    <t>Mã linh kiện</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,20 +197,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{B69A53AA-008B-40B4-AFCE-147049642BA1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -155,6 +285,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83185</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2941531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7E2D0A-9539-41AD-A771-0A67226A29E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1607185" y="528321"/>
+          <a:ext cx="1755140" cy="2813260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,191 +661,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:10" ht="255" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5">
         <v>31</v>
       </c>
-      <c r="D2">
-        <v>31</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>150</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>4650</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>35000</v>
       </c>
-      <c r="H2" s="1">
-        <v>45672</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
+      <c r="H2" s="9">
+        <f>G2*F2</f>
+        <v>162750000</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 A3:C3 E3:H3 J3 D2 F2:G2 J2" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:K1 K2 A1" numberStoredAsText="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
